--- a/Budget/owasp-summit-2017-budget with actuals v20170605.xlsx
+++ b/Budget/owasp-summit-2017-budget with actuals v20170605.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="208">
   <si>
     <t>Estimated profit</t>
   </si>
@@ -609,9 +609,6 @@
     <t>amount sponsor</t>
   </si>
   <si>
-    <t>Martin Knoblocj</t>
-  </si>
-  <si>
     <t>OWASP Board Member</t>
   </si>
   <si>
@@ -643,13 +640,26 @@
   </si>
   <si>
     <t>days</t>
+  </si>
+  <si>
+    <t>Carlos Pérez Holguera</t>
+  </si>
+  <si>
+    <t>Martin Knobloch</t>
+  </si>
+  <si>
+    <t>DevSecCon</t>
+  </si>
+  <si>
+    <t>In Kind</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0.###############"/>
     <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
@@ -879,11 +889,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1078,14 +1089,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1398,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="49.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1827,10 +1843,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" t="s">
         <v>193</v>
-      </c>
-      <c r="C16" t="s">
-        <v>194</v>
       </c>
       <c r="G16">
         <v>1500</v>
@@ -1850,7 +1866,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F17" t="s">
         <v>178</v>
@@ -2073,7 +2089,7 @@
         <v>1900</v>
       </c>
       <c r="L25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -2103,20 +2119,6 @@
       </c>
       <c r="L26" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I27">
-        <f>SUM(I2:I26)</f>
-        <v>24150</v>
-      </c>
-      <c r="J27" s="79">
-        <f t="shared" ref="J27:K27" si="0">SUM(J2:J26)</f>
-        <v>9400</v>
-      </c>
-      <c r="K27" s="79">
-        <f t="shared" si="0"/>
-        <v>17541</v>
       </c>
     </row>
   </sheetData>
@@ -2129,7 +2131,7 @@
   <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2158,10 +2160,10 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="91"/>
+      <c r="C2" s="92"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="65" t="s">
@@ -2201,7 +2203,7 @@
       </c>
       <c r="D4" s="23">
         <f>totals!B9</f>
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>0</v>
@@ -2211,7 +2213,7 @@
       </c>
       <c r="G4" s="83">
         <f>D27-G27</f>
-        <v>48071.325000000012</v>
+        <v>76988.324999999997</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
@@ -2249,7 +2251,7 @@
       </c>
       <c r="G6" s="85">
         <f>G4-G5</f>
-        <v>-1928.6749999999884</v>
+        <v>26988.324999999997</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
@@ -2341,8 +2343,8 @@
         <v>120000</v>
       </c>
       <c r="D12" s="80">
-        <f>tickets!C2</f>
-        <v>69580.5</v>
+        <f>(tickets!C2+invoiced!C13)</f>
+        <v>93058.5</v>
       </c>
       <c r="E12" s="44" t="s">
         <v>6</v>
@@ -2378,7 +2380,9 @@
         <f>Assumptions!B9*Assumptions!B11</f>
         <v>0</v>
       </c>
-      <c r="G13" s="46"/>
+      <c r="G13" s="46">
+        <v>0</v>
+      </c>
       <c r="H13" s="31"/>
       <c r="I13" s="32"/>
     </row>
@@ -2409,11 +2413,11 @@
     <row r="15" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A15" s="49"/>
       <c r="B15" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D15" s="80">
         <f>funded!K27</f>
-        <v>17541</v>
+        <v>0</v>
       </c>
       <c r="E15" s="44" t="s">
         <v>7</v>
@@ -2466,7 +2470,10 @@
         <f>(Assumptions!B7+Assumptions!B8)*Assumptions!B15</f>
         <v>1800</v>
       </c>
-      <c r="G18" s="26"/>
+      <c r="G18" s="93">
+        <f>900*1.3</f>
+        <v>1170</v>
+      </c>
       <c r="H18" s="31"/>
       <c r="I18" s="32"/>
     </row>
@@ -2562,14 +2569,14 @@
       <c r="C24" s="51"/>
       <c r="D24" s="18"/>
       <c r="E24" s="44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F24" s="47">
         <v>11650</v>
       </c>
       <c r="G24" s="83">
         <f>funded!I27</f>
-        <v>24150</v>
+        <v>0</v>
       </c>
       <c r="H24" s="31"/>
       <c r="I24" s="32"/>
@@ -2607,7 +2614,7 @@
       </c>
       <c r="D27" s="81">
         <f>SUM(D11:D26)</f>
-        <v>200771.5</v>
+        <v>206708.5</v>
       </c>
       <c r="E27" s="55" t="s">
         <v>13</v>
@@ -2618,7 +2625,7 @@
       </c>
       <c r="G27" s="84">
         <f>SUM(G11:G25)</f>
-        <v>152700.17499999999</v>
+        <v>129720.175</v>
       </c>
       <c r="H27" s="31"/>
       <c r="I27" s="32"/>
@@ -2728,7 +2735,7 @@
       </c>
       <c r="C35" s="62">
         <f>invoiced!C13</f>
-        <v>21918</v>
+        <v>23478</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8" t="s">
@@ -2736,7 +2743,7 @@
       </c>
       <c r="F35" s="77">
         <f>catering!B15*totals!B9</f>
-        <v>3741278.125</v>
+        <v>3855515.625</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="32"/>
@@ -3259,7 +3266,7 @@
     </row>
     <row r="4" spans="1:2" s="89" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="89" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B4" s="89">
         <v>125</v>
@@ -3267,7 +3274,7 @@
     </row>
     <row r="5" spans="1:2" s="89" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="89" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B5" s="89">
         <v>5</v>
@@ -3300,7 +3307,7 @@
     </row>
     <row r="10" spans="1:2" s="89" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="89" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B10" s="89">
         <f>7.5*invoiced!H1</f>
@@ -3309,7 +3316,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B11">
         <v>100</v>
@@ -3317,7 +3324,7 @@
     </row>
     <row r="12" spans="1:2" s="89" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="89" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B12" s="89">
         <v>4</v>
@@ -3814,7 +3821,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3834,7 +3841,7 @@
       </c>
       <c r="B2">
         <f>sponsored!B7+sponsored!B24</f>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3852,7 +3859,7 @@
       </c>
       <c r="B4">
         <f>invoiced!B13</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3886,7 +3893,7 @@
       </c>
       <c r="B9">
         <f>SUM(B2:B8)</f>
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3911,7 +3918,7 @@
       </c>
       <c r="B14">
         <f>B2+B4+B5+B6+B7+B11</f>
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3969,7 +3976,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4055,14 +4062,26 @@
         <v>1560</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="90">
+        <f>1200*$H$1</f>
+        <v>1560</v>
+      </c>
+    </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="75">
         <f>SUM(B2:B12)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <f>SUM(C2:C12)</f>
-        <v>21918</v>
+        <v>23478</v>
       </c>
     </row>
   </sheetData>
@@ -4075,7 +4094,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4130,12 +4149,12 @@
         <v>3500</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B5" s="66">
         <v>1</v>
@@ -4144,13 +4163,27 @@
         <v>2750</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>201</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="66">
+        <v>3</v>
+      </c>
+      <c r="C6" s="66">
+        <v>0</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="66">
         <f>SUM(B2:B6)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7" s="66">
         <f>SUM(C2:C6)</f>
